--- a/RESULTS/Section 4.2/mean_distances_summary_FR.xlsx
+++ b/RESULTS/Section 4.2/mean_distances_summary_FR.xlsx
@@ -1,97 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evangeliazve/Documents/Style-Embeddings-paper-zip/RESULTS/Section 4.2/FRENCH/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ACA448-60E5-0D4C-92A3-ECED52F9CB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
-  <si>
-    <t>UMAP_Dimension</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Mean1</t>
-  </si>
-  <si>
-    <t>Mean2</t>
-  </si>
-  <si>
-    <t>Condition_Satisfied</t>
-  </si>
-  <si>
-    <t>Condition_Significant</t>
-  </si>
-  <si>
-    <t>P_Value_T</t>
-  </si>
-  <si>
-    <t>Feneon_gen &gt; Feneon_ref</t>
-  </si>
-  <si>
-    <t>Feneon_gen &gt; Queneau_ref</t>
-  </si>
-  <si>
-    <t>Feneon_ref &gt; Queneau_gen</t>
-  </si>
-  <si>
-    <t>Feneon_ref &gt; Queneau_ref</t>
-  </si>
-  <si>
-    <t>Queneau_ref &gt; Queneau_gen</t>
-  </si>
-  <si>
-    <t>UMAP_10D</t>
-  </si>
-  <si>
-    <t>UMAP_2D</t>
-  </si>
-  <si>
-    <t>UMAP_3D</t>
-  </si>
-  <si>
-    <t>UMAP_5D</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,50 +420,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UMAP_Dimension</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Condition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mean1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mean2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Condition_Satisfied</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Condition_Significant</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P_Value_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UMAP_10D</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Feneon_ref</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1.583604592968765</v>
       </c>
-      <c r="D2">
-        <v>1.3455816007827499</v>
+      <c r="D2" t="n">
+        <v>1.34558160078275</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -481,22 +493,26 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1.067166354723598E-12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UMAP_10D</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1.583604592968765</v>
       </c>
-      <c r="D3">
-        <v>1.2431383572942629</v>
+      <c r="D3" t="n">
+        <v>1.243138357294263</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -504,22 +520,26 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1.265806835457475E-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1.3455816007827499</v>
-      </c>
-      <c r="D4">
-        <v>1.1475938995418711</v>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UMAP_10D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.34558160078275</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.147593899541871</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -527,22 +547,26 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>4.6922700089337382E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1.3455816007827499</v>
-      </c>
-      <c r="D5">
-        <v>1.2431383572942629</v>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UMAP_10D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.34558160078275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.243138357294263</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -550,22 +574,26 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>6.6652365822561418E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1.2431383572942629</v>
-      </c>
-      <c r="D6">
-        <v>1.1475938995418711</v>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UMAP_10D</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Queneau_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.243138357294263</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.147593899541871</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -573,21 +601,25 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>7.6218990535374866E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1.8907613683848989</v>
-      </c>
-      <c r="D7">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UMAP_2D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Feneon_ref</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.890761368384898</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.562486280840057</v>
       </c>
       <c r="E7" t="b">
@@ -596,45 +628,53 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>6.3241419428957562E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1.8907613683848989</v>
-      </c>
-      <c r="D8">
-        <v>1.4514813055074529</v>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UMAP_2D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.890761368384898</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.451481305507453</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>8.0826994812309386E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UMAP_2D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1.562486280840057</v>
       </c>
-      <c r="D9">
-        <v>1.3166198561047859</v>
+      <c r="D9" t="n">
+        <v>1.316619856104786</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -642,22 +682,26 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>6.0153647416503785E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UMAP_2D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1.562486280840057</v>
       </c>
-      <c r="D10">
-        <v>1.4514813055074529</v>
+      <c r="D10" t="n">
+        <v>1.451481305507453</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -665,44 +709,52 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>1.7135492370607438E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1.4514813055074529</v>
-      </c>
-      <c r="D11">
-        <v>1.3166198561047859</v>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UMAP_2D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Queneau_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.451481305507453</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.316619856104786</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0.1008218457863068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UMAP_3D</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Feneon_ref</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1.681108397430281</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1.430203205994419</v>
       </c>
       <c r="E12" t="b">
@@ -711,22 +763,26 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>2.7766535038918469E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UMAP_3D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>1.681108397430281</v>
       </c>
-      <c r="D13">
-        <v>1.3149554204509171</v>
+      <c r="D13" t="n">
+        <v>1.314955420450917</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -734,22 +790,26 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1.015746548074365E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UMAP_3D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1.430203205994419</v>
       </c>
-      <c r="D14">
-        <v>1.2275858686014991</v>
+      <c r="D14" t="n">
+        <v>1.227585868601499</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -757,22 +817,26 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>7.6123769940485567E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UMAP_3D</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1.430203205994419</v>
       </c>
-      <c r="D15">
-        <v>1.3149554204509171</v>
+      <c r="D15" t="n">
+        <v>1.314955420450917</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -780,44 +844,52 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>8.7621818942679257E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>1.3149554204509171</v>
-      </c>
-      <c r="D16">
-        <v>1.2275858686014991</v>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UMAP_3D</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Queneau_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.314955420450917</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.227585868601499</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>5.5865507593649437E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>1.5973557924879851</v>
-      </c>
-      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UMAP_5D</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Feneon_ref</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.597355792487985</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.357742935216212</v>
       </c>
       <c r="E17" t="b">
@@ -826,22 +898,26 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>4.7310081551812289E-13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>1.5973557924879851</v>
-      </c>
-      <c r="D18">
-        <v>1.2549571954526679</v>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UMAP_5D</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Feneon_gen &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.597355792487985</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.254957195452668</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -849,22 +925,26 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>3.076714541113291E-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UMAP_5D</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>1.357742935216212</v>
       </c>
-      <c r="D19">
-        <v>1.1620532901648299</v>
+      <c r="D19" t="n">
+        <v>1.16205329016483</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -872,22 +952,26 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>3.6966609181570659E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UMAP_5D</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Feneon_ref &gt; Queneau_ref</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>1.357742935216212</v>
       </c>
-      <c r="D20">
-        <v>1.2549571954526679</v>
+      <c r="D20" t="n">
+        <v>1.254957195452668</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -895,22 +979,26 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>5.1770726738156927E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>1.2549571954526679</v>
-      </c>
-      <c r="D21">
-        <v>1.1620532901648299</v>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UMAP_5D</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Queneau_ref &gt; Queneau_gen</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.254957195452668</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.16205329016483</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -918,8 +1006,8 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1.4535241820892031E-2</v>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
